--- a/zm_DOC_classBalance.xlsx
+++ b/zm_DOC_classBalance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazooie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kazooie\Documents\ZeroMark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13470" tabRatio="561"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="10635" tabRatio="561"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1208,10 +1208,10 @@
         <v>0.05</v>
       </c>
       <c r="H2" s="19">
-        <v>1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I2" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J2" s="6">
         <v>3</v>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="M2" s="17">
         <f>K2*I2*J2</f>
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="O2" s="17">
         <f>(F2*I2)*(J2*G2)</f>
-        <v>1.2375000000000003</v>
+        <v>0.99000000000000021</v>
       </c>
       <c r="P2" s="17">
         <f>O2+H2</f>
-        <v>2.2375000000000003</v>
+        <v>3.29</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="38">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="S2" s="20">
         <f>M2/P2</f>
-        <v>2011.1731843575417</v>
+        <v>1094.224924012158</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1259,16 +1259,16 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F3" s="18">
-        <v>0.52349999999999997</v>
+        <v>0.53349999999999997</v>
       </c>
       <c r="G3" s="18">
-        <v>4.4999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H3" s="19">
-        <v>0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I3" s="17">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J3" s="6">
         <v>5</v>
@@ -1282,24 +1282,24 @@
       </c>
       <c r="M3" s="17">
         <f>K3*I3*J3</f>
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="O3" s="17">
         <f>(F3*I3)*(J3*G3)</f>
-        <v>1.7668124999999997</v>
+        <v>0.89627999999999985</v>
       </c>
       <c r="P3" s="17">
         <f>O3+H3</f>
-        <v>2.6668124999999998</v>
+        <v>3.0962800000000001</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="38">
         <f>K3/F3*J3</f>
-        <v>1146.1318051575931</v>
+        <v>1124.6485473289597</v>
       </c>
       <c r="S3" s="20">
         <f>M3/P3</f>
-        <v>3374.8154397806375</v>
+        <v>1356.4664694407481</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1319,13 +1319,13 @@
         <v>0.52</v>
       </c>
       <c r="G4" s="22">
-        <v>3.5000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H4" s="23">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="I4" s="21">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J4" s="7">
         <v>5</v>
@@ -1339,15 +1339,15 @@
       </c>
       <c r="M4" s="21">
         <f>K4*I4*J4</f>
-        <v>10500</v>
+        <v>4900</v>
       </c>
       <c r="O4" s="21">
         <f>(F4*I4)*(J4*G4)</f>
-        <v>1.3650000000000002</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="P4" s="21">
         <f>O4+H4</f>
-        <v>2.165</v>
+        <v>2.8826000000000001</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="39">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="S4" s="35">
         <f>M4/P4</f>
-        <v>4849.8845265588916</v>
+        <v>1699.8542982030112</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="60" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2143,7 +2143,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="24">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D22" s="29">
         <v>0</v>
@@ -2165,15 +2165,15 @@
         <v>1</v>
       </c>
       <c r="K22" s="24">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L22" s="24">
         <f>K22*J22</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M22" s="24">
         <f>K22*I22*J22</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="O22" s="24">
         <f>F22*I22</f>
@@ -2186,11 +2186,11 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="40">
         <f>K22/F22*J22</f>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="S22" s="36">
         <f>M22/P22</f>
-        <v>315.78947368421052</v>
+        <v>473.68421052631584</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D23" s="27">
         <v>0</v>
@@ -2223,15 +2223,15 @@
         <v>1</v>
       </c>
       <c r="K23" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L23" s="17">
         <f>K23*J23</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M23" s="17">
         <f>K23*I23*J23</f>
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="O23" s="17">
         <f>F23*I23</f>
@@ -2244,11 +2244,11 @@
       <c r="Q23" s="17"/>
       <c r="R23" s="38">
         <f>K23/F23*J23</f>
-        <v>1333.3333333333335</v>
+        <v>2000</v>
       </c>
       <c r="S23" s="20">
         <f>M23/P23</f>
-        <v>537.313432835821</v>
+        <v>805.97014925373139</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="21">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D24" s="28">
         <v>0</v>
@@ -2281,15 +2281,15 @@
         <v>1</v>
       </c>
       <c r="K24" s="21">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="L24" s="17">
         <f>K24*J24</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M24" s="17">
         <f>K24*I24*J24</f>
-        <v>2640</v>
+        <v>4200</v>
       </c>
       <c r="O24" s="21">
         <f>F24*I24</f>
@@ -2302,11 +2302,11 @@
       <c r="Q24" s="21"/>
       <c r="R24" s="38">
         <f>K24/F24*J24</f>
-        <v>2933.3333333333335</v>
+        <v>4666.666666666667</v>
       </c>
       <c r="S24" s="20">
         <f>M24/P24</f>
-        <v>977.77777777777771</v>
+        <v>1555.5555555555554</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="F39" s="30">
         <f>S22</f>
-        <v>315.78947368421052</v>
+        <v>473.68421052631584</v>
       </c>
       <c r="G39" s="2">
         <f>S14</f>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H39" s="32">
         <f>E39+F39</f>
-        <v>1065.7894736842104</v>
+        <v>1223.6842105263158</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="1">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F40" s="30">
         <f>S23</f>
-        <v>537.313432835821</v>
+        <v>805.97014925373139</v>
       </c>
       <c r="G40" s="2">
         <f>S15</f>
@@ -2962,11 +2962,11 @@
       </c>
       <c r="H40" s="32">
         <f>E40+F40</f>
-        <v>1374.5227351614021</v>
+        <v>1643.1794515793126</v>
       </c>
       <c r="I40" s="33">
         <f>(H40-H39)/H39</f>
-        <v>0.28967565274403179</v>
+        <v>0.34281331526911563</v>
       </c>
       <c r="J40" s="1">
         <f>L11</f>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="F41" s="30">
         <f>S24</f>
-        <v>977.77777777777771</v>
+        <v>1555.5555555555554</v>
       </c>
       <c r="G41" s="2">
         <f>S16</f>
@@ -3001,11 +3001,11 @@
       </c>
       <c r="H41" s="32">
         <f>E41+F41</f>
-        <v>2054.7008547008545</v>
+        <v>2632.4786324786323</v>
       </c>
       <c r="I41" s="33">
         <f>(H41-H40)/H40</f>
-        <v>0.49484675818009155</v>
+        <v>0.60206399243154629</v>
       </c>
       <c r="J41" s="1">
         <f>L12</f>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="E43" s="30">
         <f>S2</f>
-        <v>2011.1731843575417</v>
+        <v>1094.224924012158</v>
       </c>
       <c r="F43" s="30">
         <f>S14</f>
@@ -3046,7 +3046,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="32">
         <f>E43+F43</f>
-        <v>2354.0303272146843</v>
+        <v>1437.0820668693009</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="1">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="E44" s="30">
         <f>S3</f>
-        <v>3374.8154397806375</v>
+        <v>1356.4664694407481</v>
       </c>
       <c r="F44" s="30">
         <f>S15</f>
@@ -3079,11 +3079,11 @@
       <c r="G44" s="2"/>
       <c r="H44" s="32">
         <f>E44+F44</f>
-        <v>3834.5855547231663</v>
+        <v>1816.2365843832767</v>
       </c>
       <c r="I44" s="33">
         <f>(H44-H43)/H43</f>
-        <v>0.62894484000139961</v>
+        <v>0.26383637111272856</v>
       </c>
       <c r="J44" s="1">
         <f>L3+L15</f>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E45" s="30">
         <f>S4</f>
-        <v>4849.8845265588916</v>
+        <v>1699.8542982030112</v>
       </c>
       <c r="F45" s="30">
         <f>S16</f>
@@ -3115,11 +3115,11 @@
       <c r="G45" s="2"/>
       <c r="H45" s="32">
         <f>E45+F45</f>
-        <v>5577.1572538316186</v>
+        <v>2427.1270254757387</v>
       </c>
       <c r="I45" s="33">
         <f>(H45-H44)/H44</f>
-        <v>0.45443547268415435</v>
+        <v>0.33634959583191998</v>
       </c>
       <c r="J45" s="1">
         <f>L4+L16</f>
